--- a/Checkpoints.xlsx
+++ b/Checkpoints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Buggy Modell in Blender aufbereiten (im Minimum losgelöste Räder)</t>
   </si>
@@ -125,11 +125,14 @@
   <si>
     <t>05.05.2017</t>
   </si>
+  <si>
+    <t>UV Mapping nicht funktioniert</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,9 +234,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,13 +514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="63.7109375" bestFit="1" customWidth="1"/>
@@ -699,7 +702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>20</v>
@@ -709,15 +712,20 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>22</v>
@@ -725,7 +733,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>23</v>
@@ -733,7 +741,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>6</v>
       </c>
@@ -745,7 +753,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>25</v>
@@ -753,7 +761,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>7</v>
       </c>
@@ -763,7 +771,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>27</v>
@@ -771,7 +779,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>8</v>
       </c>
@@ -781,7 +789,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>29</v>
@@ -789,7 +797,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>30</v>
@@ -799,17 +807,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="D16:D27"/>
     <mergeCell ref="D3:D15"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="D16:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Checkpoints.xlsx
+++ b/Checkpoints.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Buggy Modell in Blender aufbereiten (im Minimum losgelöste Räder)</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>UV Mapping nicht funktioniert</t>
+  </si>
+  <si>
+    <t>rateOverDistance statt rate!</t>
+  </si>
+  <si>
+    <t>Zusätzlich Checkpoints hinzugefügt</t>
+  </si>
+  <si>
+    <t>Optional: Asphaltierte Strassen mit EasyRoad</t>
   </si>
 </sst>
 </file>
@@ -514,16 +523,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,7 +726,7 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="6"/>
@@ -730,8 +739,13 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="D19" s="6"/>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -758,8 +772,13 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="D22" s="6"/>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -779,7 +798,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>8</v>
       </c>
@@ -789,7 +808,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>29</v>
@@ -797,21 +816,31 @@
       <c r="C26" s="3"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="D16:D27"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="D16:D28"/>
     <mergeCell ref="D3:D15"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:C1"/>

--- a/Checkpoints.xlsx
+++ b/Checkpoints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Buggy Modell in Blender aufbereiten (im Minimum losgelöste Räder)</t>
   </si>
@@ -137,11 +137,14 @@
   <si>
     <t>Optional: Asphaltierte Strassen mit EasyRoad</t>
   </si>
+  <si>
+    <t>(OK)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,14 +223,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,9 +243,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,23 +525,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -558,295 +558,307 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6"/>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="D16:D28"/>
     <mergeCell ref="D3:D15"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="D16:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Checkpoints.xlsx
+++ b/Checkpoints.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Buggy Modell in Blender aufbereiten (im Minimum losgelöste Räder)</t>
   </si>
@@ -126,19 +126,25 @@
     <t>05.05.2017</t>
   </si>
   <si>
-    <t>UV Mapping nicht funktioniert</t>
-  </si>
-  <si>
     <t>rateOverDistance statt rate!</t>
   </si>
   <si>
-    <t>Zusätzlich Checkpoints hinzugefügt</t>
-  </si>
-  <si>
     <t>Optional: Asphaltierte Strassen mit EasyRoad</t>
   </si>
   <si>
     <t>(OK)</t>
+  </si>
+  <si>
+    <t>UV Mapping skalieren und verschieben nicht gut funktioniert</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Zusätzlich Checkpoints hinzugefügt (Shortcut nicht erlaubt)</t>
+  </si>
+  <si>
+    <t>Statt PlayerPrefs =&gt; Mit Statischem Objekt Daten von Startszene an Hauptszene übergeben</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,16 +540,17 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="95.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -556,8 +563,11 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -571,7 +581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>2</v>
@@ -581,7 +591,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -593,7 +603,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>4</v>
@@ -603,7 +613,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>5</v>
@@ -613,7 +623,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>6</v>
@@ -623,7 +633,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -633,7 +643,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>9</v>
@@ -643,7 +653,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -655,7 +665,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>12</v>
@@ -665,7 +675,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>11</v>
@@ -675,7 +685,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -687,7 +697,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>14</v>
@@ -697,7 +707,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -731,7 +741,7 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,7 +754,7 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,7 +789,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,7 +822,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -839,12 +849,17 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
